--- a/input/tool/REACH_SOM_DSA_Survey_Tool_for_results_table.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_for_results_table.xlsx
@@ -9253,8 +9253,8 @@
   <dimension ref="A1:AE424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/tool/REACH_SOM_DSA_Survey_Tool_for_results_table.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_for_results_table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BC0EE33-70F3-E443-81EF-AC19424C6B2A}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="760" windowWidth="29240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39400" yWindow="-320" windowWidth="29240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -9252,9 +9252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE424"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
+    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B334" sqref="B334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21945,9 +21945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I839"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B447" sqref="B447"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D674" sqref="D674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
